--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph\Desktop\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="66">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Erstellung einer Systemdokumentation</t>
+  </si>
+  <si>
+    <t>Zeiterfassung überarbeitet und angepasst</t>
+  </si>
+  <si>
+    <t>Aktualisierung Trello</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -534,17 +540,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -563,6 +596,30 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -891,7 +948,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.25</c:v>
+                  <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.75</c:v>
@@ -1196,10 +1253,10 @@
                   <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.75</c:v>
+                  <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1247,11 +1304,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1026738592"/>
-        <c:axId val="-1026740768"/>
+        <c:axId val="1628044656"/>
+        <c:axId val="1628031600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1026738592"/>
+        <c:axId val="1628044656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1351,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1026740768"/>
+        <c:crossAx val="1628031600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1302,7 +1359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1026740768"/>
+        <c:axId val="1628031600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1410,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1026738592"/>
+        <c:crossAx val="1628044656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2615,7 +2672,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="B6:H46"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
@@ -2626,10 +2683,10 @@
     <tableColumn id="8" name="Datum"/>
     <tableColumn id="4" name="von"/>
     <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="13">
+    <tableColumn id="15" name="Dauer" dataDxfId="19">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="12">
+    <tableColumn id="1" name="KW" dataDxfId="18">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2638,7 +2695,77 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle34" displayName="Tabelle34" ref="B6:H45" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle34" displayName="Tabelle34" ref="B6:H45" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="B6:H45"/>
+  <sortState ref="B7:H45">
+    <sortCondition ref="D6:D45"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="16">
+      <calculatedColumnFormula>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" name="KW" dataDxfId="15">
+      <calculatedColumnFormula>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B6:H44"/>
+  <sortState ref="B7:H44">
+    <sortCondition ref="D7:D44"/>
+    <sortCondition ref="E7:E44"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Art" dataDxfId="8"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="7"/>
+    <tableColumn id="8" name="Datum" dataDxfId="6"/>
+    <tableColumn id="4" name="von" dataDxfId="5"/>
+    <tableColumn id="5" name="bis" dataDxfId="4"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="3">
+      <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" name="KW" dataDxfId="2">
+      <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="B6:H45"/>
+  <sortState ref="B7:H45">
+    <sortCondition ref="D6:D45"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="13">
+      <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" name="KW" dataDxfId="12">
+      <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
@@ -2650,78 +2777,9 @@
     <tableColumn id="4" name="von"/>
     <tableColumn id="5" name="bis"/>
     <tableColumn id="15" name="Dauer" dataDxfId="10">
-      <calculatedColumnFormula>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</calculatedColumnFormula>
+      <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" name="KW" dataDxfId="9">
-      <calculatedColumnFormula>WEEKNUM(Tabelle34[[#This Row],[Datum]],2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle36" displayName="Tabelle36" ref="B6:H44" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B6:H44"/>
-  <sortState ref="B7:H44">
-    <sortCondition ref="D6:D44"/>
-  </sortState>
-  <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="7">
-      <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="6">
-      <calculatedColumnFormula>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B6:H45"/>
-  <sortState ref="B7:H45">
-    <sortCondition ref="D6:D45"/>
-  </sortState>
-  <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="4">
-      <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="3">
-      <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle37" displayName="Tabelle37" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
-  <sortState ref="B7:H45">
-    <sortCondition ref="D6:D45"/>
-  </sortState>
-  <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
-      <calculatedColumnFormula>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle37[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3028,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -3082,7 +3140,7 @@
       </c>
       <c r="C4" s="2">
         <f>G41</f>
-        <v>11.25</v>
+        <v>15.25</v>
       </c>
       <c r="D4" s="2">
         <f>H41</f>
@@ -3356,7 +3414,7 @@
       </c>
       <c r="G30" s="9">
         <f>SUMIF(Huber!$H$7:$H$45,Zeiterfassung_Gesamt!A30,Huber!$G$7:$G$45)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="9">
         <f>SUMIF(Teuchtmann!$H$7:$H$45,Zeiterfassung_Gesamt!A30,Teuchtmann!$G$7:$G$45)</f>
@@ -3368,11 +3426,11 @@
       </c>
       <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>71.75</v>
+        <v>72.75</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" si="1"/>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -3400,7 +3458,7 @@
       </c>
       <c r="G31" s="9">
         <f>SUMIF(Huber!$H$7:$H$45,Zeiterfassung_Gesamt!A31,Huber!$G$7:$G$45)</f>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H31" s="9">
         <f>SUMIF(Teuchtmann!$H$7:$H$45,Zeiterfassung_Gesamt!A31,Teuchtmann!$G$7:$G$45)</f>
@@ -3412,11 +3470,11 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" si="1"/>
-        <v>-32</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -3835,7 +3893,7 @@
       </c>
       <c r="G41" s="15">
         <f t="shared" si="4"/>
-        <v>11.25</v>
+        <v>15.25</v>
       </c>
       <c r="H41" s="15">
         <f t="shared" si="4"/>
@@ -3847,11 +3905,11 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K41" s="15">
         <f>SUM(K26:K40)</f>
-        <v>-614</v>
+        <v>-610</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -8155,55 +8213,57 @@
   <dimension ref="A2:H229"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="75.6328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="51"/>
+    <col min="7" max="7" width="12.90625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="51"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="60" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8223,11 +8283,11 @@
       <c r="F7" s="42">
         <v>0.5625</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>1.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>12</v>
       </c>
@@ -8248,134 +8308,164 @@
       <c r="F8" s="42">
         <v>0.84375</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>2.25</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D9" s="39">
         <v>43202</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F9" s="40">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F9" s="42">
+      <c r="G9" s="51">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="51">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="39">
+        <v>43202</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F10" s="42">
         <v>0.5</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="38" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D11" s="39">
         <v>43205</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E11" s="42">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F11" s="42">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G10">
+      <c r="G11" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="38" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C12" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="39">
+        <v>43208</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G12" s="51">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="51">
+        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D13" s="39">
         <v>43208</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E13" s="42">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F13" s="42">
         <v>0.52083333333333337</v>
       </c>
-      <c r="G11">
+      <c r="G13" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
-      <c r="H11">
+      <c r="H13" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="39">
+        <v>43208</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G14" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="H14" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -8384,11 +8474,11 @@
       <c r="D15" s="39"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15">
+      <c r="G15" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8399,11 +8489,11 @@
       <c r="D16" s="39"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
-      <c r="G16">
+      <c r="G16" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8414,11 +8504,11 @@
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
-      <c r="G17">
+      <c r="G17" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8429,11 +8519,11 @@
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
-      <c r="G18">
+      <c r="G18" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8444,11 +8534,11 @@
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
-      <c r="G19">
+      <c r="G19" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8459,11 +8549,11 @@
       <c r="D20" s="39"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
-      <c r="G20">
+      <c r="G20" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8474,11 +8564,11 @@
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
-      <c r="G21">
+      <c r="G21" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8489,11 +8579,11 @@
       <c r="D22" s="39"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
-      <c r="G22">
+      <c r="G22" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8504,11 +8594,11 @@
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
-      <c r="G23">
+      <c r="G23" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8519,11 +8609,11 @@
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
-      <c r="G24">
+      <c r="G24" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8534,11 +8624,11 @@
       <c r="D25" s="39"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
-      <c r="G25">
+      <c r="G25" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8549,11 +8639,11 @@
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
-      <c r="G26">
+      <c r="G26" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8564,11 +8654,11 @@
       <c r="D27" s="39"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
-      <c r="G27">
+      <c r="G27" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8579,11 +8669,11 @@
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
-      <c r="G28">
+      <c r="G28" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8594,11 +8684,11 @@
       <c r="D29" s="39"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
-      <c r="G29">
+      <c r="G29" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8609,11 +8699,11 @@
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
-      <c r="G30">
+      <c r="G30" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8624,11 +8714,11 @@
       <c r="D31" s="39"/>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
-      <c r="G31">
+      <c r="G31" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8639,11 +8729,11 @@
       <c r="D32" s="39"/>
       <c r="E32" s="40"/>
       <c r="F32" s="40"/>
-      <c r="G32">
+      <c r="G32" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8654,11 +8744,11 @@
       <c r="D33" s="39"/>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
-      <c r="G33">
+      <c r="G33" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8669,11 +8759,11 @@
       <c r="D34" s="39"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
-      <c r="G34">
+      <c r="G34" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8684,11 +8774,11 @@
       <c r="D35" s="39"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35">
+      <c r="G35" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8699,11 +8789,11 @@
       <c r="D36" s="39"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
-      <c r="G36">
+      <c r="G36" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8714,11 +8804,11 @@
       <c r="D37" s="39"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
-      <c r="G37">
+      <c r="G37" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8729,11 +8819,11 @@
       <c r="D38" s="39"/>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
-      <c r="G38">
+      <c r="G38" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8744,11 +8834,11 @@
       <c r="D39" s="39"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
-      <c r="G39">
+      <c r="G39" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8759,11 +8849,11 @@
       <c r="D40" s="39"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
-      <c r="G40">
+      <c r="G40" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8774,11 +8864,11 @@
       <c r="D41" s="39"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40"/>
-      <c r="G41">
+      <c r="G41" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8789,11 +8879,11 @@
       <c r="D42" s="39"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
-      <c r="G42">
+      <c r="G42" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
@@ -8804,1638 +8894,1638 @@
       <c r="D43" s="39"/>
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
-      <c r="G43">
+      <c r="G43" s="51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="51">
         <f>WEEKNUM(Tabelle36[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44">
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="51">
         <f>SUM(G7:G43)</f>
-        <v>11.25</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="26"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="30"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="30"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="30"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="30"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="30"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="30"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="30"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="26"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="30"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="30"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="30"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="30"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="30"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="30"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="30"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="30"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="30"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="30"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="30"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="30"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="30"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="30"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="30"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="30"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="30"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="30"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="30"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="30"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="30"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="30"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="30"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="30"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="30"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="30"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="30"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="30"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="30"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="30"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="30"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="30"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="26"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="30"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="26"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="26"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="30"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="30"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="30"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="30"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="30"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="30"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="30"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="30"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="30"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="30"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="30"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="30"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-    </row>
-    <row r="107" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="30"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="30"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-    </row>
-    <row r="109" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="30"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-    </row>
-    <row r="110" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="26"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="30"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-    </row>
-    <row r="111" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="30"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="26"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="30"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-    </row>
-    <row r="113" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="30"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="26"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="30"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="26"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="30"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="26"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="30"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="30"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="30"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-    </row>
-    <row r="119" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="26"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="30"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-    </row>
-    <row r="120" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="30"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-    </row>
-    <row r="121" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="30"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="26"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="30"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="26"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="30"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-    </row>
-    <row r="124" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="26"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="30"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-    </row>
-    <row r="125" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="30"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-    </row>
-    <row r="126" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="30"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-    </row>
-    <row r="127" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="30"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-    </row>
-    <row r="128" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="30"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-    </row>
-    <row r="129" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="30"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-    </row>
-    <row r="130" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="26"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="30"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-    </row>
-    <row r="131" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="30"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-    </row>
-    <row r="132" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="30"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-    </row>
-    <row r="133" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="30"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-    </row>
-    <row r="134" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="26"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="30"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-    </row>
-    <row r="135" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-    </row>
-    <row r="136" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="26"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-    </row>
-    <row r="137" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A137" s="26"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-    </row>
-    <row r="138" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-    </row>
-    <row r="139" spans="1:8" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="26"/>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="29"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-    </row>
-    <row r="140" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="30"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-    </row>
-    <row r="141" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="30"/>
-      <c r="F141"/>
-      <c r="G141"/>
-      <c r="H141"/>
-    </row>
-    <row r="142" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="30"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-    </row>
-    <row r="143" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="30"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-    </row>
-    <row r="144" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="30"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-    </row>
-    <row r="145" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="30"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-    </row>
-    <row r="146" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="30"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-    </row>
-    <row r="147" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="30"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147"/>
-    </row>
-    <row r="148" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="30"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-    </row>
-    <row r="149" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="30"/>
-      <c r="F149"/>
-      <c r="G149"/>
-      <c r="H149"/>
-    </row>
-    <row r="150" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="26"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="30"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-    </row>
-    <row r="151" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="30"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-    </row>
-    <row r="152" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="30"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-    </row>
-    <row r="153" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="30"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-    </row>
-    <row r="154" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="30"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-    </row>
-    <row r="155" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="26"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="30"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="H155"/>
-    </row>
-    <row r="156" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="30"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-    </row>
-    <row r="157" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="30"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-    </row>
-    <row r="158" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="26"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="30"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-    </row>
-    <row r="159" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="26"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="30"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-    </row>
-    <row r="160" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="30"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-    </row>
-    <row r="161" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="30"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-    </row>
-    <row r="162" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="30"/>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="H162"/>
-    </row>
-    <row r="163" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="30"/>
-      <c r="F163"/>
-      <c r="G163"/>
-      <c r="H163"/>
-    </row>
-    <row r="164" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="30"/>
-      <c r="F164"/>
-      <c r="G164"/>
-      <c r="H164"/>
-    </row>
-    <row r="165" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="30"/>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165"/>
-    </row>
-    <row r="166" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="30"/>
-      <c r="F166"/>
-      <c r="G166"/>
-      <c r="H166"/>
-    </row>
-    <row r="167" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="30"/>
-      <c r="F167"/>
-      <c r="G167"/>
-      <c r="H167"/>
-    </row>
-    <row r="168" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="30"/>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="H168"/>
-    </row>
-    <row r="169" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="30"/>
-      <c r="F169"/>
-      <c r="G169"/>
-      <c r="H169"/>
-    </row>
-    <row r="170" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="30"/>
-      <c r="F170"/>
-      <c r="G170"/>
-      <c r="H170"/>
-    </row>
-    <row r="171" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="30"/>
-      <c r="F171"/>
-      <c r="G171"/>
-      <c r="H171"/>
-    </row>
-    <row r="172" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="30"/>
-      <c r="F172"/>
-      <c r="G172"/>
-      <c r="H172"/>
-    </row>
-    <row r="173" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="30"/>
-      <c r="F173"/>
-      <c r="G173"/>
-      <c r="H173"/>
-    </row>
-    <row r="174" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="30"/>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="H174"/>
-    </row>
-    <row r="175" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="30"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="H175"/>
-    </row>
-    <row r="176" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="30"/>
-      <c r="F176"/>
-      <c r="G176"/>
-      <c r="H176"/>
-    </row>
-    <row r="177" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="30"/>
-      <c r="F177"/>
-      <c r="G177"/>
-      <c r="H177"/>
-    </row>
-    <row r="178" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="30"/>
-      <c r="F178"/>
-      <c r="G178"/>
-      <c r="H178"/>
-    </row>
-    <row r="179" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="26"/>
-      <c r="B179" s="31"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="30"/>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="H179"/>
-    </row>
-    <row r="180" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="H180"/>
-    </row>
-    <row r="181" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="H181"/>
-    </row>
-    <row r="182" spans="1:8" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A182" s="26"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="H182"/>
-    </row>
-    <row r="183" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="F183"/>
-      <c r="G183"/>
-      <c r="H183"/>
-    </row>
-    <row r="184" spans="1:8" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="26"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="29"/>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="H184"/>
-    </row>
-    <row r="185" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="30"/>
-      <c r="F185"/>
-      <c r="G185"/>
-      <c r="H185"/>
-    </row>
-    <row r="186" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="30"/>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="H186"/>
-    </row>
-    <row r="187" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="30"/>
-      <c r="F187"/>
-      <c r="G187"/>
-      <c r="H187"/>
-    </row>
-    <row r="188" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="30"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
-    </row>
-    <row r="189" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="30"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="H189"/>
-    </row>
-    <row r="190" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="30"/>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="H190"/>
-    </row>
-    <row r="191" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="30"/>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="H191"/>
-    </row>
-    <row r="192" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="30"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
-    </row>
-    <row r="193" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="30"/>
-      <c r="F193"/>
-      <c r="G193"/>
-      <c r="H193"/>
-    </row>
-    <row r="194" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="30"/>
-      <c r="F194"/>
-      <c r="G194"/>
-      <c r="H194"/>
-    </row>
-    <row r="195" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="30"/>
-      <c r="F195"/>
-      <c r="G195"/>
-      <c r="H195"/>
-    </row>
-    <row r="196" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="30"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196"/>
-    </row>
-    <row r="197" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="30"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="H197"/>
-    </row>
-    <row r="198" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="30"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="H198"/>
-    </row>
-    <row r="199" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="30"/>
-      <c r="F199"/>
-      <c r="G199"/>
-      <c r="H199"/>
-    </row>
-    <row r="200" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="30"/>
-      <c r="F200"/>
-      <c r="G200"/>
-      <c r="H200"/>
-    </row>
-    <row r="201" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="30"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-    </row>
-    <row r="202" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="30"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
-    </row>
-    <row r="203" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="30"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="H203"/>
-    </row>
-    <row r="204" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="30"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
-    </row>
-    <row r="205" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="30"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="H205"/>
-    </row>
-    <row r="206" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="30"/>
-      <c r="F206"/>
-      <c r="G206"/>
-      <c r="H206"/>
-    </row>
-    <row r="207" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="26"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="30"/>
-      <c r="F207"/>
-      <c r="G207"/>
-      <c r="H207"/>
-    </row>
-    <row r="208" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="30"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="H208"/>
-    </row>
-    <row r="209" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="30"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209"/>
-    </row>
-    <row r="210" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="30"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="H210"/>
-    </row>
-    <row r="211" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="30"/>
-      <c r="F211"/>
-      <c r="G211"/>
-      <c r="H211"/>
-    </row>
-    <row r="212" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="30"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
-    </row>
-    <row r="213" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="30"/>
-      <c r="F213"/>
-      <c r="G213"/>
-      <c r="H213"/>
-    </row>
-    <row r="214" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="30"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
-    </row>
-    <row r="215" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="30"/>
-      <c r="F215"/>
-      <c r="G215"/>
-      <c r="H215"/>
-    </row>
-    <row r="216" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="30"/>
-      <c r="F216"/>
-      <c r="G216"/>
-      <c r="H216"/>
-    </row>
-    <row r="217" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="30"/>
-      <c r="F217"/>
-      <c r="G217"/>
-      <c r="H217"/>
-    </row>
-    <row r="218" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="30"/>
-      <c r="F218"/>
-      <c r="G218"/>
-      <c r="H218"/>
-    </row>
-    <row r="219" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="30"/>
-      <c r="F219"/>
-      <c r="G219"/>
-      <c r="H219"/>
-    </row>
-    <row r="220" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="26"/>
-      <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="F220"/>
-      <c r="G220"/>
-      <c r="H220"/>
-    </row>
-    <row r="221" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="26"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="F221"/>
-      <c r="G221"/>
-      <c r="H221"/>
-    </row>
-    <row r="222" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="26"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="F222"/>
-      <c r="G222"/>
-      <c r="H222"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+    </row>
+    <row r="47" spans="1:8" s="54" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" s="54" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="64"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+    </row>
+    <row r="50" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="68"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+    </row>
+    <row r="51" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="68"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+    </row>
+    <row r="52" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="68"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+    </row>
+    <row r="53" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="68"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+    </row>
+    <row r="54" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="68"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+    </row>
+    <row r="55" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="68"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+    </row>
+    <row r="56" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="68"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+    </row>
+    <row r="57" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="64"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="68"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+    </row>
+    <row r="58" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="68"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+    </row>
+    <row r="59" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="68"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+    </row>
+    <row r="60" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="68"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+    </row>
+    <row r="61" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="68"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+    </row>
+    <row r="62" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="68"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+    </row>
+    <row r="63" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="68"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+    </row>
+    <row r="64" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="68"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+    </row>
+    <row r="65" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="68"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+    </row>
+    <row r="66" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="68"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+    </row>
+    <row r="67" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="68"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+    </row>
+    <row r="68" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="68"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="68"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+    </row>
+    <row r="70" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="68"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+    </row>
+    <row r="71" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="64"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="68"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+    </row>
+    <row r="72" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="64"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="68"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+    </row>
+    <row r="73" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="68"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+    </row>
+    <row r="74" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="68"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+    </row>
+    <row r="75" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="68"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+    </row>
+    <row r="76" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="68"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+    </row>
+    <row r="77" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="68"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+    </row>
+    <row r="78" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="68"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+    </row>
+    <row r="79" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="68"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+    </row>
+    <row r="80" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="68"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+    </row>
+    <row r="81" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="68"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+    </row>
+    <row r="82" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="64"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="68"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+    </row>
+    <row r="83" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="68"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+    </row>
+    <row r="84" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="64"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="68"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+    </row>
+    <row r="85" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="68"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+    </row>
+    <row r="86" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="64"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="68"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+    </row>
+    <row r="87" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="68"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+    </row>
+    <row r="88" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="64"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="68"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+    </row>
+    <row r="89" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="64"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="68"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+    </row>
+    <row r="90" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="64"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+    </row>
+    <row r="91" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="64"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+    </row>
+    <row r="92" spans="1:8" s="54" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="64"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+    </row>
+    <row r="93" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+    </row>
+    <row r="94" spans="1:8" s="54" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="64"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="67"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+    </row>
+    <row r="95" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="64"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="68"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+    </row>
+    <row r="96" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="64"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="68"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+    </row>
+    <row r="97" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="64"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="68"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+    </row>
+    <row r="98" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="64"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="68"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+    </row>
+    <row r="99" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="68"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+    </row>
+    <row r="100" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="64"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="68"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+    </row>
+    <row r="101" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="64"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="68"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+    </row>
+    <row r="102" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="68"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+    </row>
+    <row r="103" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="64"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="68"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+    </row>
+    <row r="104" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="68"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+    </row>
+    <row r="105" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="64"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="68"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+    </row>
+    <row r="106" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="68"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+    </row>
+    <row r="107" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="64"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="68"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+    </row>
+    <row r="108" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="64"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="68"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+    </row>
+    <row r="109" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="64"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="68"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+    </row>
+    <row r="110" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="64"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="68"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+    </row>
+    <row r="111" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="64"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="68"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+    </row>
+    <row r="112" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="68"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+    </row>
+    <row r="113" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="64"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="68"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+    </row>
+    <row r="114" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="64"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="68"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+    </row>
+    <row r="115" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="64"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="68"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+    </row>
+    <row r="116" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="68"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+    </row>
+    <row r="117" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="64"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="68"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+    </row>
+    <row r="118" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="64"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="68"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+    </row>
+    <row r="119" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="68"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+    </row>
+    <row r="120" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="68"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+    </row>
+    <row r="121" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="68"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+    </row>
+    <row r="122" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="68"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+    </row>
+    <row r="123" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="68"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+    </row>
+    <row r="124" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="68"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="51"/>
+    </row>
+    <row r="125" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="68"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+    </row>
+    <row r="126" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="68"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
+    </row>
+    <row r="127" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="68"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
+    </row>
+    <row r="128" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="64"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="68"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+    </row>
+    <row r="129" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="68"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="51"/>
+      <c r="H129" s="51"/>
+    </row>
+    <row r="130" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="68"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+    </row>
+    <row r="131" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="68"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+    </row>
+    <row r="132" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="68"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="51"/>
+    </row>
+    <row r="133" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="68"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="51"/>
+    </row>
+    <row r="134" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="64"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="68"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="51"/>
+    </row>
+    <row r="135" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="51"/>
+      <c r="H135" s="51"/>
+    </row>
+    <row r="136" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51"/>
+    </row>
+    <row r="137" spans="1:8" s="54" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A137" s="64"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51"/>
+    </row>
+    <row r="138" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+    </row>
+    <row r="139" spans="1:8" s="54" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="64"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="67"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
+    </row>
+    <row r="140" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="68"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+    </row>
+    <row r="141" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="68"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="51"/>
+    </row>
+    <row r="142" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="68"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="51"/>
+    </row>
+    <row r="143" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="68"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="51"/>
+      <c r="H143" s="51"/>
+    </row>
+    <row r="144" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="68"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="51"/>
+    </row>
+    <row r="145" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="68"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="51"/>
+      <c r="H145" s="51"/>
+    </row>
+    <row r="146" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="68"/>
+      <c r="F146" s="51"/>
+      <c r="G146" s="51"/>
+      <c r="H146" s="51"/>
+    </row>
+    <row r="147" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="68"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="51"/>
+    </row>
+    <row r="148" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="64"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="64"/>
+      <c r="D148" s="68"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="51"/>
+    </row>
+    <row r="149" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="64"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="68"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="51"/>
+      <c r="H149" s="51"/>
+    </row>
+    <row r="150" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="68"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="51"/>
+    </row>
+    <row r="151" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="68"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="51"/>
+      <c r="H151" s="51"/>
+    </row>
+    <row r="152" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="68"/>
+      <c r="F152" s="51"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="51"/>
+    </row>
+    <row r="153" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="64"/>
+      <c r="B153" s="64"/>
+      <c r="C153" s="64"/>
+      <c r="D153" s="68"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+    </row>
+    <row r="154" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="64"/>
+      <c r="B154" s="64"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="68"/>
+      <c r="F154" s="51"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="51"/>
+    </row>
+    <row r="155" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="64"/>
+      <c r="B155" s="64"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="68"/>
+      <c r="F155" s="51"/>
+      <c r="G155" s="51"/>
+      <c r="H155" s="51"/>
+    </row>
+    <row r="156" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="64"/>
+      <c r="B156" s="64"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="68"/>
+      <c r="F156" s="51"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="51"/>
+    </row>
+    <row r="157" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="64"/>
+      <c r="B157" s="64"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="68"/>
+      <c r="F157" s="51"/>
+      <c r="G157" s="51"/>
+      <c r="H157" s="51"/>
+    </row>
+    <row r="158" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="64"/>
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="68"/>
+      <c r="F158" s="51"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="51"/>
+    </row>
+    <row r="159" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="64"/>
+      <c r="B159" s="64"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="68"/>
+      <c r="F159" s="51"/>
+      <c r="G159" s="51"/>
+      <c r="H159" s="51"/>
+    </row>
+    <row r="160" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="64"/>
+      <c r="B160" s="64"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="68"/>
+      <c r="F160" s="51"/>
+      <c r="G160" s="51"/>
+      <c r="H160" s="51"/>
+    </row>
+    <row r="161" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="64"/>
+      <c r="B161" s="64"/>
+      <c r="C161" s="64"/>
+      <c r="D161" s="68"/>
+      <c r="F161" s="51"/>
+      <c r="G161" s="51"/>
+      <c r="H161" s="51"/>
+    </row>
+    <row r="162" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="64"/>
+      <c r="B162" s="64"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="68"/>
+      <c r="F162" s="51"/>
+      <c r="G162" s="51"/>
+      <c r="H162" s="51"/>
+    </row>
+    <row r="163" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="64"/>
+      <c r="B163" s="64"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="68"/>
+      <c r="F163" s="51"/>
+      <c r="G163" s="51"/>
+      <c r="H163" s="51"/>
+    </row>
+    <row r="164" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="64"/>
+      <c r="B164" s="64"/>
+      <c r="C164" s="64"/>
+      <c r="D164" s="68"/>
+      <c r="F164" s="51"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="51"/>
+    </row>
+    <row r="165" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="64"/>
+      <c r="B165" s="64"/>
+      <c r="C165" s="64"/>
+      <c r="D165" s="68"/>
+      <c r="F165" s="51"/>
+      <c r="G165" s="51"/>
+      <c r="H165" s="51"/>
+    </row>
+    <row r="166" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="64"/>
+      <c r="B166" s="64"/>
+      <c r="C166" s="64"/>
+      <c r="D166" s="68"/>
+      <c r="F166" s="51"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="51"/>
+    </row>
+    <row r="167" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="64"/>
+      <c r="B167" s="64"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="68"/>
+      <c r="F167" s="51"/>
+      <c r="G167" s="51"/>
+      <c r="H167" s="51"/>
+    </row>
+    <row r="168" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="64"/>
+      <c r="B168" s="64"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="68"/>
+      <c r="F168" s="51"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="51"/>
+    </row>
+    <row r="169" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="64"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="68"/>
+      <c r="F169" s="51"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="51"/>
+    </row>
+    <row r="170" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="64"/>
+      <c r="B170" s="64"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="68"/>
+      <c r="F170" s="51"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="51"/>
+    </row>
+    <row r="171" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="64"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="68"/>
+      <c r="F171" s="51"/>
+      <c r="G171" s="51"/>
+      <c r="H171" s="51"/>
+    </row>
+    <row r="172" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="64"/>
+      <c r="B172" s="64"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="68"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="51"/>
+    </row>
+    <row r="173" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="64"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="68"/>
+      <c r="F173" s="51"/>
+      <c r="G173" s="51"/>
+      <c r="H173" s="51"/>
+    </row>
+    <row r="174" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="64"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="68"/>
+      <c r="F174" s="51"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="51"/>
+    </row>
+    <row r="175" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="64"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="68"/>
+      <c r="F175" s="51"/>
+      <c r="G175" s="51"/>
+      <c r="H175" s="51"/>
+    </row>
+    <row r="176" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="64"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="64"/>
+      <c r="D176" s="68"/>
+      <c r="F176" s="51"/>
+      <c r="G176" s="51"/>
+      <c r="H176" s="51"/>
+    </row>
+    <row r="177" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="64"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="68"/>
+      <c r="F177" s="51"/>
+      <c r="G177" s="51"/>
+      <c r="H177" s="51"/>
+    </row>
+    <row r="178" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="64"/>
+      <c r="B178" s="64"/>
+      <c r="C178" s="64"/>
+      <c r="D178" s="68"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="51"/>
+    </row>
+    <row r="179" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="64"/>
+      <c r="B179" s="70"/>
+      <c r="C179" s="64"/>
+      <c r="D179" s="68"/>
+      <c r="F179" s="51"/>
+      <c r="G179" s="51"/>
+      <c r="H179" s="51"/>
+    </row>
+    <row r="180" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="64"/>
+      <c r="B180" s="64"/>
+      <c r="C180" s="64"/>
+      <c r="D180" s="64"/>
+      <c r="F180" s="51"/>
+      <c r="G180" s="51"/>
+      <c r="H180" s="51"/>
+    </row>
+    <row r="181" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="64"/>
+      <c r="B181" s="64"/>
+      <c r="C181" s="64"/>
+      <c r="D181" s="64"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="51"/>
+    </row>
+    <row r="182" spans="1:8" s="54" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A182" s="64"/>
+      <c r="B182" s="65"/>
+      <c r="C182" s="64"/>
+      <c r="D182" s="64"/>
+      <c r="F182" s="51"/>
+      <c r="G182" s="51"/>
+      <c r="H182" s="51"/>
+    </row>
+    <row r="183" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="64"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="64"/>
+      <c r="D183" s="64"/>
+      <c r="F183" s="51"/>
+      <c r="G183" s="51"/>
+      <c r="H183" s="51"/>
+    </row>
+    <row r="184" spans="1:8" s="54" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="64"/>
+      <c r="B184" s="66"/>
+      <c r="C184" s="66"/>
+      <c r="D184" s="67"/>
+      <c r="F184" s="51"/>
+      <c r="G184" s="51"/>
+      <c r="H184" s="51"/>
+    </row>
+    <row r="185" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="64"/>
+      <c r="B185" s="64"/>
+      <c r="C185" s="64"/>
+      <c r="D185" s="68"/>
+      <c r="F185" s="51"/>
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+    </row>
+    <row r="186" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="64"/>
+      <c r="B186" s="64"/>
+      <c r="C186" s="64"/>
+      <c r="D186" s="68"/>
+      <c r="F186" s="51"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="51"/>
+    </row>
+    <row r="187" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="64"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="64"/>
+      <c r="D187" s="68"/>
+      <c r="F187" s="51"/>
+      <c r="G187" s="51"/>
+      <c r="H187" s="51"/>
+    </row>
+    <row r="188" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="64"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="64"/>
+      <c r="D188" s="68"/>
+      <c r="F188" s="51"/>
+      <c r="G188" s="51"/>
+      <c r="H188" s="51"/>
+    </row>
+    <row r="189" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="64"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="64"/>
+      <c r="D189" s="68"/>
+      <c r="F189" s="51"/>
+      <c r="G189" s="51"/>
+      <c r="H189" s="51"/>
+    </row>
+    <row r="190" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="64"/>
+      <c r="B190" s="64"/>
+      <c r="C190" s="64"/>
+      <c r="D190" s="68"/>
+      <c r="F190" s="51"/>
+      <c r="G190" s="51"/>
+      <c r="H190" s="51"/>
+    </row>
+    <row r="191" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="64"/>
+      <c r="B191" s="64"/>
+      <c r="C191" s="64"/>
+      <c r="D191" s="68"/>
+      <c r="F191" s="51"/>
+      <c r="G191" s="51"/>
+      <c r="H191" s="51"/>
+    </row>
+    <row r="192" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="64"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="64"/>
+      <c r="D192" s="68"/>
+      <c r="F192" s="51"/>
+      <c r="G192" s="51"/>
+      <c r="H192" s="51"/>
+    </row>
+    <row r="193" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="64"/>
+      <c r="B193" s="64"/>
+      <c r="C193" s="64"/>
+      <c r="D193" s="68"/>
+      <c r="F193" s="51"/>
+      <c r="G193" s="51"/>
+      <c r="H193" s="51"/>
+    </row>
+    <row r="194" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="64"/>
+      <c r="B194" s="64"/>
+      <c r="C194" s="64"/>
+      <c r="D194" s="68"/>
+      <c r="F194" s="51"/>
+      <c r="G194" s="51"/>
+      <c r="H194" s="51"/>
+    </row>
+    <row r="195" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="64"/>
+      <c r="B195" s="64"/>
+      <c r="C195" s="64"/>
+      <c r="D195" s="68"/>
+      <c r="F195" s="51"/>
+      <c r="G195" s="51"/>
+      <c r="H195" s="51"/>
+    </row>
+    <row r="196" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="64"/>
+      <c r="B196" s="64"/>
+      <c r="C196" s="64"/>
+      <c r="D196" s="68"/>
+      <c r="F196" s="51"/>
+      <c r="G196" s="51"/>
+      <c r="H196" s="51"/>
+    </row>
+    <row r="197" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="64"/>
+      <c r="B197" s="64"/>
+      <c r="C197" s="64"/>
+      <c r="D197" s="68"/>
+      <c r="F197" s="51"/>
+      <c r="G197" s="51"/>
+      <c r="H197" s="51"/>
+    </row>
+    <row r="198" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="64"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="64"/>
+      <c r="D198" s="68"/>
+      <c r="F198" s="51"/>
+      <c r="G198" s="51"/>
+      <c r="H198" s="51"/>
+    </row>
+    <row r="199" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="64"/>
+      <c r="B199" s="64"/>
+      <c r="C199" s="64"/>
+      <c r="D199" s="68"/>
+      <c r="F199" s="51"/>
+      <c r="G199" s="51"/>
+      <c r="H199" s="51"/>
+    </row>
+    <row r="200" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="64"/>
+      <c r="B200" s="64"/>
+      <c r="C200" s="64"/>
+      <c r="D200" s="68"/>
+      <c r="F200" s="51"/>
+      <c r="G200" s="51"/>
+      <c r="H200" s="51"/>
+    </row>
+    <row r="201" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="64"/>
+      <c r="B201" s="64"/>
+      <c r="C201" s="64"/>
+      <c r="D201" s="68"/>
+      <c r="F201" s="51"/>
+      <c r="G201" s="51"/>
+      <c r="H201" s="51"/>
+    </row>
+    <row r="202" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="64"/>
+      <c r="B202" s="64"/>
+      <c r="C202" s="64"/>
+      <c r="D202" s="68"/>
+      <c r="F202" s="51"/>
+      <c r="G202" s="51"/>
+      <c r="H202" s="51"/>
+    </row>
+    <row r="203" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="64"/>
+      <c r="B203" s="64"/>
+      <c r="C203" s="64"/>
+      <c r="D203" s="68"/>
+      <c r="F203" s="51"/>
+      <c r="G203" s="51"/>
+      <c r="H203" s="51"/>
+    </row>
+    <row r="204" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="64"/>
+      <c r="B204" s="64"/>
+      <c r="C204" s="64"/>
+      <c r="D204" s="68"/>
+      <c r="F204" s="51"/>
+      <c r="G204" s="51"/>
+      <c r="H204" s="51"/>
+    </row>
+    <row r="205" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="64"/>
+      <c r="B205" s="64"/>
+      <c r="C205" s="64"/>
+      <c r="D205" s="68"/>
+      <c r="F205" s="51"/>
+      <c r="G205" s="51"/>
+      <c r="H205" s="51"/>
+    </row>
+    <row r="206" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="64"/>
+      <c r="B206" s="64"/>
+      <c r="C206" s="64"/>
+      <c r="D206" s="68"/>
+      <c r="F206" s="51"/>
+      <c r="G206" s="51"/>
+      <c r="H206" s="51"/>
+    </row>
+    <row r="207" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="64"/>
+      <c r="B207" s="64"/>
+      <c r="C207" s="64"/>
+      <c r="D207" s="68"/>
+      <c r="F207" s="51"/>
+      <c r="G207" s="51"/>
+      <c r="H207" s="51"/>
+    </row>
+    <row r="208" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="64"/>
+      <c r="B208" s="64"/>
+      <c r="C208" s="64"/>
+      <c r="D208" s="68"/>
+      <c r="F208" s="51"/>
+      <c r="G208" s="51"/>
+      <c r="H208" s="51"/>
+    </row>
+    <row r="209" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="64"/>
+      <c r="B209" s="64"/>
+      <c r="C209" s="64"/>
+      <c r="D209" s="68"/>
+      <c r="F209" s="51"/>
+      <c r="G209" s="51"/>
+      <c r="H209" s="51"/>
+    </row>
+    <row r="210" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="64"/>
+      <c r="B210" s="64"/>
+      <c r="C210" s="64"/>
+      <c r="D210" s="68"/>
+      <c r="F210" s="51"/>
+      <c r="G210" s="51"/>
+      <c r="H210" s="51"/>
+    </row>
+    <row r="211" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="64"/>
+      <c r="B211" s="64"/>
+      <c r="C211" s="64"/>
+      <c r="D211" s="68"/>
+      <c r="F211" s="51"/>
+      <c r="G211" s="51"/>
+      <c r="H211" s="51"/>
+    </row>
+    <row r="212" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="64"/>
+      <c r="B212" s="64"/>
+      <c r="C212" s="64"/>
+      <c r="D212" s="68"/>
+      <c r="F212" s="51"/>
+      <c r="G212" s="51"/>
+      <c r="H212" s="51"/>
+    </row>
+    <row r="213" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="64"/>
+      <c r="B213" s="64"/>
+      <c r="C213" s="64"/>
+      <c r="D213" s="68"/>
+      <c r="F213" s="51"/>
+      <c r="G213" s="51"/>
+      <c r="H213" s="51"/>
+    </row>
+    <row r="214" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="64"/>
+      <c r="B214" s="64"/>
+      <c r="C214" s="64"/>
+      <c r="D214" s="68"/>
+      <c r="F214" s="51"/>
+      <c r="G214" s="51"/>
+      <c r="H214" s="51"/>
+    </row>
+    <row r="215" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="64"/>
+      <c r="B215" s="64"/>
+      <c r="C215" s="64"/>
+      <c r="D215" s="68"/>
+      <c r="F215" s="51"/>
+      <c r="G215" s="51"/>
+      <c r="H215" s="51"/>
+    </row>
+    <row r="216" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="64"/>
+      <c r="B216" s="64"/>
+      <c r="C216" s="64"/>
+      <c r="D216" s="68"/>
+      <c r="F216" s="51"/>
+      <c r="G216" s="51"/>
+      <c r="H216" s="51"/>
+    </row>
+    <row r="217" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="64"/>
+      <c r="B217" s="64"/>
+      <c r="C217" s="64"/>
+      <c r="D217" s="68"/>
+      <c r="F217" s="51"/>
+      <c r="G217" s="51"/>
+      <c r="H217" s="51"/>
+    </row>
+    <row r="218" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="64"/>
+      <c r="B218" s="64"/>
+      <c r="C218" s="64"/>
+      <c r="D218" s="68"/>
+      <c r="F218" s="51"/>
+      <c r="G218" s="51"/>
+      <c r="H218" s="51"/>
+    </row>
+    <row r="219" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="64"/>
+      <c r="B219" s="64"/>
+      <c r="C219" s="64"/>
+      <c r="D219" s="68"/>
+      <c r="F219" s="51"/>
+      <c r="G219" s="51"/>
+      <c r="H219" s="51"/>
+    </row>
+    <row r="220" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="64"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+      <c r="D220" s="51"/>
+      <c r="F220" s="51"/>
+      <c r="G220" s="51"/>
+      <c r="H220" s="51"/>
+    </row>
+    <row r="221" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="64"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="51"/>
+      <c r="F221" s="51"/>
+      <c r="G221" s="51"/>
+      <c r="H221" s="51"/>
+    </row>
+    <row r="222" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="64"/>
+      <c r="B222" s="51"/>
+      <c r="C222" s="51"/>
+      <c r="D222" s="51"/>
+      <c r="F222" s="51"/>
+      <c r="G222" s="51"/>
+      <c r="H222" s="51"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="26"/>
+      <c r="A223" s="64"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="26"/>
+      <c r="A224" s="64"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="26"/>
+      <c r="A225" s="64"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="26"/>
+      <c r="A226" s="64"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="26"/>
+      <c r="A227" s="64"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="26"/>
+      <c r="A228" s="64"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="26"/>
+      <c r="A229" s="64"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.25</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.75</c:v>
@@ -930,13 +930,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.75</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>21.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -984,11 +984,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-786650592"/>
-        <c:axId val="-786650048"/>
+        <c:axId val="-25641552"/>
+        <c:axId val="-25640464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-786650592"/>
+        <c:axId val="-25641552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-786650048"/>
+        <c:crossAx val="-25640464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-786650048"/>
+        <c:axId val="-25640464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1090,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-786650592"/>
+        <c:crossAx val="-25641552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2294,7 +2294,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2330,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,18 +3074,18 @@
         </row>
         <row r="15">
           <cell r="G15">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H15">
-            <v>1</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>0</v>
+            <v>0.75</v>
           </cell>
           <cell r="H16">
-            <v>1</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="17">
@@ -3306,7 +3306,7 @@
         </row>
         <row r="44">
           <cell r="G44">
-            <v>15.25</v>
+            <v>17.5</v>
           </cell>
         </row>
       </sheetData>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C4" s="2">
         <f>G41</f>
-        <v>15.25</v>
+        <v>17.5</v>
       </c>
       <c r="D4" s="2">
         <f>H41</f>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="G29" s="9">
         <f>SUMIF([3]Huber!$H$7:$H$45,Zeiterfassung_Gesamt!A29,[3]Huber!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="9">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,Zeiterfassung_Gesamt!A29,[4]Teuchtmann!$G$7:$G$45)</f>
@@ -4565,11 +4565,11 @@
       </c>
       <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>20.75</v>
+        <v>22.25</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" si="1"/>
-        <v>-29.25</v>
+        <v>-27.75</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="G31" s="9">
         <f>SUMIF([3]Huber!$H$7:$H$45,Zeiterfassung_Gesamt!A31,[3]Huber!$G$7:$G$45)</f>
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="H31" s="9">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,Zeiterfassung_Gesamt!A31,[4]Teuchtmann!$G$7:$G$45)</f>
@@ -4653,11 +4653,11 @@
       </c>
       <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>21.75</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" si="1"/>
-        <v>-29</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="G41" s="15">
         <f t="shared" si="4"/>
-        <v>15.25</v>
+        <v>17.5</v>
       </c>
       <c r="H41" s="15">
         <f t="shared" si="4"/>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>142.25</v>
       </c>
       <c r="K41" s="15">
         <f>SUM(K26:K40)</f>
-        <v>-610</v>
+        <v>-607.75</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC41245-DF39-447E-8B1D-FD0D9B7EBBCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +112,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -260,11 +261,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -275,10 +276,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,13 +288,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,7 +353,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -391,7 +392,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -443,7 +443,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -463,7 +463,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -483,7 +483,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -505,7 +505,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -527,7 +527,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -560,27 +560,27 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E3C-4530-9C5F-8BD904943914}"/>
             </c:ext>
@@ -607,7 +607,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -639,14 +638,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -682,7 +681,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -726,7 +725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -833,7 +831,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -859,28 +857,28 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$J$26:$J$40</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>21.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -909,7 +907,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -1045,7 +1043,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1077,14 +1074,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2235,7 +2232,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2268,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4198,28 +4195,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -4233,7 +4230,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4253,38 +4250,38 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="e">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <f>E41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B4" s="1" t="e">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
         <f>F41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="1" t="e">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
         <f>G41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="1" t="e">
+        <v>20.5</v>
+      </c>
+      <c r="D4" s="1">
         <f>H41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="1" t="e">
+        <v>23.75</v>
+      </c>
+      <c r="E4" s="1">
         <f>I41</f>
-        <v>#VALUE!</v>
+        <v>36</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4296,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4314,7 +4311,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -4360,36 +4357,36 @@
       <c r="D26" s="6">
         <v>50</v>
       </c>
-      <c r="E26" s="8" t="e">
+      <c r="E26" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A26,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="8" t="e">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A26,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A26,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A26,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="8" t="e">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A26,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
         <f>SUM(E26:I26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="9" t="e">
+        <v>7.75</v>
+      </c>
+      <c r="K26" s="9">
         <f>J26-D26</f>
-        <v>#VALUE!</v>
+        <v>-42.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -4404,36 +4401,36 @@
       <c r="D27" s="6">
         <v>50</v>
       </c>
-      <c r="E27" s="8" t="e">
+      <c r="E27" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A27,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="8" t="e">
+        <v>4.25</v>
+      </c>
+      <c r="F27" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A27,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="8" t="e">
+        <v>2.75</v>
+      </c>
+      <c r="G27" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A27,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="8" t="e">
+        <v>3.75</v>
+      </c>
+      <c r="H27" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A27,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="8" t="e">
+        <v>4.25</v>
+      </c>
+      <c r="I27" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A27,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" s="8" t="e">
+        <v>2.75</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" ref="J27:J40" si="0">SUM(E27:I27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="9" t="e">
+        <v>17.75</v>
+      </c>
+      <c r="K27" s="9">
         <f t="shared" ref="K27:K40" si="1">J27-D27</f>
-        <v>#VALUE!</v>
+        <v>-32.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -4448,36 +4445,36 @@
       <c r="D28" s="6">
         <v>50</v>
       </c>
-      <c r="E28" s="8" t="e">
+      <c r="E28" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A28,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A28,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A28,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A28,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A28,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -4492,36 +4489,36 @@
       <c r="D29" s="6">
         <v>50</v>
       </c>
-      <c r="E29" s="8" t="e">
+      <c r="E29" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A29,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="8" t="e">
+        <v>3</v>
+      </c>
+      <c r="F29" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A29,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="8" t="e">
+        <v>8</v>
+      </c>
+      <c r="G29" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A29,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="8" t="e">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A29,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="8" t="e">
+        <v>1.75</v>
+      </c>
+      <c r="I29" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A29,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="8" t="e">
+        <v>8</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="9" t="e">
+        <v>22.25</v>
+      </c>
+      <c r="K29" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-27.75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -4536,36 +4533,36 @@
       <c r="D30" s="6">
         <v>50</v>
       </c>
-      <c r="E30" s="8" t="e">
+      <c r="E30" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A30,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="8" t="e">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A30,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="8" t="e">
+        <v>18.75</v>
+      </c>
+      <c r="G30" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A30,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="8" t="e">
+        <v>6</v>
+      </c>
+      <c r="H30" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A30,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="8" t="e">
+        <v>9.25</v>
+      </c>
+      <c r="I30" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A30,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="8" t="e">
+        <v>21.75</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="9" t="e">
+        <v>72.75</v>
+      </c>
+      <c r="K30" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>22.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>16</v>
       </c>
@@ -4580,36 +4577,36 @@
       <c r="D31" s="6">
         <v>50</v>
       </c>
-      <c r="E31" s="8" t="e">
+      <c r="E31" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A31,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="8" t="e">
+        <v>6</v>
+      </c>
+      <c r="F31" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A31,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="8" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="G31" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A31,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="8" t="e">
+        <v>6.25</v>
+      </c>
+      <c r="H31" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A31,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="8" t="e">
+        <v>4.5</v>
+      </c>
+      <c r="I31" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A31,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="8" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="J31" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="9" t="e">
+        <v>21.75</v>
+      </c>
+      <c r="K31" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-28.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -4624,36 +4621,36 @@
       <c r="D32" s="6">
         <v>50</v>
       </c>
-      <c r="E32" s="8" t="e">
+      <c r="E32" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A32,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A32,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A32,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="8" t="e">
+        <v>3</v>
+      </c>
+      <c r="H32" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A32,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A32,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="9" t="e">
+        <v>3</v>
+      </c>
+      <c r="K32" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-47</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>18</v>
       </c>
@@ -4668,36 +4665,36 @@
       <c r="D33" s="6">
         <v>50</v>
       </c>
-      <c r="E33" s="8" t="e">
+      <c r="E33" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A33,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A33,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A33,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A33,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A33,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -4712,36 +4709,36 @@
       <c r="D34" s="6">
         <v>50</v>
       </c>
-      <c r="E34" s="8" t="e">
+      <c r="E34" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A34,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A34,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A34,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A34,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A34,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>20</v>
       </c>
@@ -4756,36 +4753,36 @@
       <c r="D35" s="6">
         <v>50</v>
       </c>
-      <c r="E35" s="8" t="e">
+      <c r="E35" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A35,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A35,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A35,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A35,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A35,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J35" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>21</v>
       </c>
@@ -4800,36 +4797,36 @@
       <c r="D36" s="6">
         <v>50</v>
       </c>
-      <c r="E36" s="8" t="e">
+      <c r="E36" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A36,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A36,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A36,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A36,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A36,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>22</v>
       </c>
@@ -4844,36 +4841,36 @@
       <c r="D37" s="6">
         <v>50</v>
       </c>
-      <c r="E37" s="8" t="e">
+      <c r="E37" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A37,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A37,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A37,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A37,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A37,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>23</v>
       </c>
@@ -4888,36 +4885,36 @@
       <c r="D38" s="6">
         <v>50</v>
       </c>
-      <c r="E38" s="8" t="e">
+      <c r="E38" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A38,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A38,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A38,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H38" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A38,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A38,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J38" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>24</v>
       </c>
@@ -4932,36 +4929,36 @@
       <c r="D39" s="6">
         <v>50</v>
       </c>
-      <c r="E39" s="8" t="e">
+      <c r="E39" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A39,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A39,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A39,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H39" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A39,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A39,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J39" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>25</v>
       </c>
@@ -4976,36 +4973,36 @@
       <c r="D40" s="10">
         <v>50</v>
       </c>
-      <c r="E40" s="8" t="e">
+      <c r="E40" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A40,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A40,[2]Dusanic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A40,[3]Huber!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A40,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A40,[5]Tomic!$G$7:$G$45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>15</v>
       </c>
@@ -5015,71 +5012,71 @@
         <f>SUM(D26:D40)</f>
         <v>750</v>
       </c>
-      <c r="E41" s="14" t="e">
+      <c r="E41" s="14">
         <f>SUM(E26:E40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="14" t="e">
+        <v>32</v>
+      </c>
+      <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" s="14" t="e">
+        <v>33</v>
+      </c>
+      <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" s="14" t="e">
+        <v>20.5</v>
+      </c>
+      <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" s="14" t="e">
+        <v>23.75</v>
+      </c>
+      <c r="I41" s="14">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" s="14" t="e">
+        <v>36</v>
+      </c>
+      <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" s="14" t="e">
+        <v>145.25</v>
+      </c>
+      <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>#VALUE!</v>
+        <v>-604.75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC41245-DF39-447E-8B1D-FD0D9B7EBBCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,9 +111,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -261,11 +260,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,10 +275,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -288,13 +287,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,7 +352,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -443,7 +442,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -463,7 +462,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -483,7 +482,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -505,7 +504,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -527,7 +526,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -560,27 +559,27 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>47.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.5</c:v>
+                  <c:v>26.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.75</c:v>
+                  <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>45.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E3C-4530-9C5F-8BD904943914}"/>
             </c:ext>
@@ -638,14 +637,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -681,7 +680,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -831,7 +830,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -857,7 +856,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$J$26:$J$40</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
@@ -875,13 +874,13 @@
                   <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.75</c:v>
+                  <c:v>26.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>42.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -907,7 +906,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -923,11 +922,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1262765360"/>
-        <c:axId val="-1262764816"/>
+        <c:axId val="1656941008"/>
+        <c:axId val="1656949168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1262765360"/>
+        <c:axId val="1656941008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +969,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1262764816"/>
+        <c:crossAx val="1656949168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1262764816"/>
+        <c:axId val="1656949168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1028,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1262765360"/>
+        <c:crossAx val="1656941008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1074,14 +1073,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2232,7 +2231,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2267,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,58 +2410,58 @@
         </row>
         <row r="21">
           <cell r="G21">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H21">
-            <v>1</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="22">
           <cell r="G22">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H22">
-            <v>1</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="23">
           <cell r="G23">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H23">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="24">
           <cell r="G24">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H24">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="25">
           <cell r="G25">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H25">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="26">
           <cell r="G26">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H26">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="27">
           <cell r="G27">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H27">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="28">
@@ -2705,42 +2704,42 @@
         </row>
         <row r="17">
           <cell r="G17">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H17">
-            <v>1</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H18">
-            <v>1</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H19">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="20">
           <cell r="G20">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H20">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="21">
           <cell r="G21">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H21">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="22">
@@ -2929,7 +2928,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>33</v>
+            <v>47.25</v>
           </cell>
         </row>
       </sheetData>
@@ -3036,26 +3035,26 @@
         </row>
         <row r="18">
           <cell r="G18">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H18">
-            <v>1</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H19">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="20">
           <cell r="G20">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H20">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="21">
@@ -3244,7 +3243,7 @@
         </row>
         <row r="44">
           <cell r="G44">
-            <v>20.5</v>
+            <v>26.75</v>
           </cell>
         </row>
       </sheetData>
@@ -3367,50 +3366,50 @@
         </row>
         <row r="20">
           <cell r="G20">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H20">
-            <v>1</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="21">
           <cell r="G21">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H21">
-            <v>1</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="22">
           <cell r="G22">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H22">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="23">
           <cell r="G23">
-            <v>0</v>
+            <v>1.25</v>
           </cell>
           <cell r="H23">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="24">
           <cell r="G24">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
           <cell r="H24">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="25">
           <cell r="G25">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H25">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="26">
@@ -3567,7 +3566,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>23.75</v>
+            <v>36.75</v>
           </cell>
         </row>
       </sheetData>
@@ -3674,34 +3673,34 @@
         </row>
         <row r="18">
           <cell r="G18">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H18">
-            <v>1</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H19">
-            <v>1</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="20">
           <cell r="G20">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H20">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="21">
           <cell r="G21">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H21">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="22">
@@ -3890,7 +3889,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>36</v>
+            <v>45.25</v>
           </cell>
         </row>
       </sheetData>
@@ -4195,28 +4194,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -4230,7 +4229,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4250,38 +4249,38 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>E41</f>
-        <v>32</v>
+        <v>48.5</v>
       </c>
       <c r="B4" s="1">
         <f>F41</f>
-        <v>33</v>
+        <v>47.25</v>
       </c>
       <c r="C4" s="1">
         <f>G41</f>
-        <v>20.5</v>
+        <v>26.75</v>
       </c>
       <c r="D4" s="1">
         <f>H41</f>
-        <v>23.75</v>
+        <v>36.75</v>
       </c>
       <c r="E4" s="1">
         <f>I41</f>
-        <v>36</v>
+        <v>45.25</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4295,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4311,7 +4310,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>-32.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>-27.75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>16</v>
       </c>
@@ -4579,34 +4578,34 @@
       </c>
       <c r="E31" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A31,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A31,[2]Dusanic!$G$7:$G$45)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G31" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A31,[3]Huber!$G$7:$G$45)</f>
-        <v>6.25</v>
+        <v>7.25</v>
       </c>
       <c r="H31" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A31,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I31" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A31,[5]Tomic!$G$7:$G$45)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" si="0"/>
-        <v>21.75</v>
+        <v>26.75</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="1"/>
-        <v>-28.25</v>
+        <v>-23.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -4623,11 +4622,11 @@
       </c>
       <c r="E32" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A32,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A32,[2]Dusanic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A32,[3]Huber!$G$7:$G$45)</f>
@@ -4635,22 +4634,22 @@
       </c>
       <c r="H32" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A32,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A32,[5]Tomic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="1"/>
-        <v>-47</v>
+        <v>-35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>18</v>
       </c>
@@ -4667,34 +4666,34 @@
       </c>
       <c r="E33" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A33,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F33" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A33,[2]Dusanic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="G33" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A33,[3]Huber!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="H33" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A33,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A33,[5]Tomic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.25</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>-7.75</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>20</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>21</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>22</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>23</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>24</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>25</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>15</v>
       </c>
@@ -5014,69 +5013,69 @@
       </c>
       <c r="E41" s="14">
         <f>SUM(E26:E40)</f>
-        <v>32</v>
+        <v>48.5</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>33</v>
+        <v>47.25</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>20.5</v>
+        <v>26.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>23.75</v>
+        <v>36.75</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>45.25</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>145.25</v>
+        <v>204.5</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-604.75</v>
+        <v>-545.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
                   <c:v>47.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.75</c:v>
+                  <c:v>28.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>36.75</c:v>
@@ -880,7 +880,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.25</c:v>
+                  <c:v>44.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -922,11 +922,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1656941008"/>
-        <c:axId val="1656949168"/>
+        <c:axId val="1521154192"/>
+        <c:axId val="1521148208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1656941008"/>
+        <c:axId val="1521154192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +969,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656949168"/>
+        <c:crossAx val="1521148208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -977,7 +977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1656949168"/>
+        <c:axId val="1521148208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1028,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1656941008"/>
+        <c:crossAx val="1521154192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2267,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,10 +3059,10 @@
         </row>
         <row r="21">
           <cell r="G21">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H21">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="22">
@@ -3243,7 +3243,7 @@
         </row>
         <row r="44">
           <cell r="G44">
-            <v>26.75</v>
+            <v>28.75</v>
           </cell>
         </row>
       </sheetData>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="C4" s="1">
         <f>G41</f>
-        <v>26.75</v>
+        <v>28.75</v>
       </c>
       <c r="D4" s="1">
         <f>H41</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="G33" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A33,[3]Huber!$G$7:$G$45)</f>
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
       <c r="H33" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A33,[4]Teuchtmann!$G$7:$G$45)</f>
@@ -4686,11 +4686,11 @@
       </c>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>42.25</v>
+        <v>44.25</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
-        <v>-7.75</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>26.75</v>
+        <v>28.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
@@ -5033,11 +5033,11 @@
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>204.5</v>
+        <v>206.5</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-545.5</v>
+        <v>-543.5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04967BFC-0A06-43D2-8532-A39BB6286454}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +112,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -260,11 +261,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -275,10 +276,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,13 +288,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,7 +353,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -442,7 +443,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -462,7 +463,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -482,7 +483,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -504,7 +505,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -526,7 +527,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -559,27 +560,27 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.25</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.75</c:v>
+                  <c:v>29.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.75</c:v>
+                  <c:v>40.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.25</c:v>
+                  <c:v>59.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E3C-4530-9C5F-8BD904943914}"/>
             </c:ext>
@@ -637,14 +638,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -680,7 +681,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -830,7 +831,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -856,7 +857,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$J$26:$J$40</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
@@ -880,13 +881,13 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.25</c:v>
+                  <c:v>46.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -906,7 +907,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -1073,14 +1074,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2231,7 +2232,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2268,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,18 +2467,18 @@
         </row>
         <row r="28">
           <cell r="G28">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H28">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="29">
           <cell r="G29">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H29">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="30">
@@ -2744,18 +2745,18 @@
         </row>
         <row r="22">
           <cell r="G22">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H22">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="23">
           <cell r="G23">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H23">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="24">
@@ -2928,7 +2929,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>47.25</v>
+            <v>56.25</v>
           </cell>
         </row>
       </sheetData>
@@ -3043,7 +3044,7 @@
         </row>
         <row r="19">
           <cell r="G19">
-            <v>3</v>
+            <v>2.25</v>
           </cell>
           <cell r="H19">
             <v>18</v>
@@ -3051,7 +3052,7 @@
         </row>
         <row r="20">
           <cell r="G20">
-            <v>2.25</v>
+            <v>2</v>
           </cell>
           <cell r="H20">
             <v>18</v>
@@ -3059,10 +3060,10 @@
         </row>
         <row r="21">
           <cell r="G21">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="H21">
-            <v>18</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="22">
@@ -3243,7 +3244,7 @@
         </row>
         <row r="44">
           <cell r="G44">
-            <v>28.75</v>
+            <v>29.75</v>
           </cell>
         </row>
       </sheetData>
@@ -3414,10 +3415,10 @@
         </row>
         <row r="26">
           <cell r="G26">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H26">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="27">
@@ -3566,7 +3567,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>36.75</v>
+            <v>40.75</v>
           </cell>
         </row>
       </sheetData>
@@ -3705,26 +3706,26 @@
         </row>
         <row r="22">
           <cell r="G22">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H22">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="23">
           <cell r="G23">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H23">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="24">
           <cell r="G24">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H24">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="25">
@@ -3889,7 +3890,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>45.25</v>
+            <v>59.25</v>
           </cell>
         </row>
       </sheetData>
@@ -4194,28 +4195,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -4229,7 +4230,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4249,38 +4250,38 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>E41</f>
-        <v>48.5</v>
+        <v>57.5</v>
       </c>
       <c r="B4" s="1">
         <f>F41</f>
-        <v>47.25</v>
+        <v>56.25</v>
       </c>
       <c r="C4" s="1">
         <f>G41</f>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="D4" s="1">
         <f>H41</f>
-        <v>36.75</v>
+        <v>40.75</v>
       </c>
       <c r="E4" s="1">
         <f>I41</f>
-        <v>45.25</v>
+        <v>59.25</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
@@ -4295,7 +4296,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4310,7 +4311,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>-32.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>-27.75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>16</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>-23.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>18</v>
       </c>
@@ -4674,7 +4675,7 @@
       </c>
       <c r="G33" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A33,[3]Huber!$G$7:$G$45)</f>
-        <v>7.25</v>
+        <v>4.25</v>
       </c>
       <c r="H33" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A33,[4]Teuchtmann!$G$7:$G$45)</f>
@@ -4682,18 +4683,18 @@
       </c>
       <c r="I33" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A33,[5]Tomic!$G$7:$G$45)</f>
-        <v>5.25</v>
+        <v>10.25</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>44.25</v>
+        <v>46.25</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
-        <v>-5.75</v>
+        <v>-3.75</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>20</v>
       </c>
@@ -4754,34 +4755,34 @@
       </c>
       <c r="E35" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A35,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F35" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A35,[2]Dusanic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G35" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A35,[3]Huber!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H35" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A35,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A35,[5]Tomic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>-15</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>21</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>22</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>23</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>24</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>25</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>15</v>
       </c>
@@ -5013,69 +5014,69 @@
       </c>
       <c r="E41" s="14">
         <f>SUM(E26:E40)</f>
-        <v>48.5</v>
+        <v>57.5</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>47.25</v>
+        <v>56.25</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>36.75</v>
+        <v>40.75</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="4"/>
-        <v>45.25</v>
+        <v>59.25</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>206.5</v>
+        <v>243.5</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-543.5</v>
+        <v>-506.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04967BFC-0A06-43D2-8532-A39BB6286454}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0062277F-B0A0-4B53-9F08-5519AE6DCDEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13020" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,19 +563,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>57.5</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.25</c:v>
+                  <c:v>87.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.75</c:v>
+                  <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.75</c:v>
+                  <c:v>53.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.25</c:v>
+                  <c:v>90.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,10 +887,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2483,58 +2483,58 @@
         </row>
         <row r="30">
           <cell r="G30">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H30">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="31">
           <cell r="G31">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H31">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="32">
           <cell r="G32">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H32">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="33">
           <cell r="G33">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H33">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="34">
           <cell r="G34">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
           <cell r="H34">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="35">
           <cell r="G35">
-            <v>0</v>
+            <v>6.5</v>
           </cell>
           <cell r="H35">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="36">
           <cell r="G36">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H36">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="37">
@@ -2761,42 +2761,42 @@
         </row>
         <row r="24">
           <cell r="G24">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="H24">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="25">
           <cell r="G25">
-            <v>0</v>
+            <v>8</v>
           </cell>
           <cell r="H25">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="26">
           <cell r="G26">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H26">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="27">
           <cell r="G27">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="H27">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="28">
           <cell r="G28">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H28">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="29">
@@ -2929,7 +2929,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>56.25</v>
+            <v>87.75</v>
           </cell>
         </row>
       </sheetData>
@@ -3068,10 +3068,10 @@
         </row>
         <row r="22">
           <cell r="G22">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H22">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="23">
@@ -3244,7 +3244,7 @@
         </row>
         <row r="44">
           <cell r="G44">
-            <v>29.75</v>
+            <v>34.25</v>
           </cell>
         </row>
       </sheetData>
@@ -3423,34 +3423,34 @@
         </row>
         <row r="27">
           <cell r="G27">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
           <cell r="H27">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="28">
           <cell r="G28">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H28">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="29">
           <cell r="G29">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H29">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="30">
           <cell r="G30">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H30">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="31">
@@ -3567,7 +3567,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>40.75</v>
+            <v>53.75</v>
           </cell>
         </row>
       </sheetData>
@@ -3730,42 +3730,42 @@
         </row>
         <row r="25">
           <cell r="G25">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="H25">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="26">
           <cell r="G26">
-            <v>0</v>
+            <v>8</v>
           </cell>
           <cell r="H26">
-            <v>1</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="27">
           <cell r="G27">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H27">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="28">
           <cell r="G28">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="H28">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="29">
           <cell r="G29">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H29">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="30">
@@ -3890,7 +3890,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>59.25</v>
+            <v>90.75</v>
           </cell>
         </row>
       </sheetData>
@@ -4253,23 +4253,23 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>E41</f>
-        <v>57.5</v>
+        <v>86.5</v>
       </c>
       <c r="B4" s="1">
         <f>F41</f>
-        <v>56.25</v>
+        <v>87.75</v>
       </c>
       <c r="C4" s="1">
         <f>G41</f>
-        <v>29.75</v>
+        <v>34.25</v>
       </c>
       <c r="D4" s="1">
         <f>H41</f>
-        <v>40.75</v>
+        <v>53.75</v>
       </c>
       <c r="E4" s="1">
         <f>I41</f>
-        <v>59.25</v>
+        <v>90.75</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
@@ -4755,11 +4755,11 @@
       </c>
       <c r="E35" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A35,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="F35" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A35,[2]Dusanic!$G$7:$G$45)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G35" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A35,[3]Huber!$G$7:$G$45)</f>
@@ -4767,19 +4767,19 @@
       </c>
       <c r="H35" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A35,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="I35" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A35,[5]Tomic!$G$7:$G$45)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4799,31 +4799,31 @@
       </c>
       <c r="E36" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A36,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="F36" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A36,[2]Dusanic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="G36" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A36,[3]Huber!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H36" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A36,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I36" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A36,[5]Tomic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5014,31 +5014,31 @@
       </c>
       <c r="E41" s="14">
         <f>SUM(E26:E40)</f>
-        <v>57.5</v>
+        <v>86.5</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>56.25</v>
+        <v>87.75</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>29.75</v>
+        <v>34.25</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>40.75</v>
+        <v>53.75</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="4"/>
-        <v>59.25</v>
+        <v>90.75</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>243.5</v>
+        <v>353</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-506.5</v>
+        <v>-397</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
